--- a/MatrizRastreabilidade.xlsx
+++ b/MatrizRastreabilidade.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t xml:space="preserve">Matriz de rastreablidade – Caso de Uso loja de cosméticos</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legenda:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacionado</t>
   </si>
 </sst>
 </file>
@@ -266,7 +275,7 @@
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,6 +298,14 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -384,10 +401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,8 +617,42 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
